--- a/src/test/testData/mappedDataSheet.xlsx
+++ b/src/test/testData/mappedDataSheet.xlsx
@@ -9,12 +9,13 @@
     <sheet name="MappedData" r:id="rId3" sheetId="1"/>
     <sheet name="DN_Data" r:id="rId4" sheetId="2"/>
     <sheet name="Realtime_Data" r:id="rId5" sheetId="3"/>
+    <sheet name="ValidationResult" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2755" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2825" uniqueCount="236">
   <si>
     <t>msg_type</t>
   </si>
@@ -698,6 +699,30 @@
   </si>
   <si>
     <t>0220E00100 0905150428035812</t>
+  </si>
+  <si>
+    <t>msg_type and MTI validation</t>
+  </si>
+  <si>
+    <t>Function Code</t>
+  </si>
+  <si>
+    <t>Draft Capture Validation</t>
+  </si>
+  <si>
+    <t>Validate_StanIn_StandinAct</t>
+  </si>
+  <si>
+    <t>Validate_DATE_RECON_ACQ_srcnode_date_settle</t>
+  </si>
+  <si>
+    <t>Validate_ADL_RQST_AMT1_srcnode_cash_requested</t>
+  </si>
+  <si>
+    <t>Validate_CUR_RECON_ACQ_1_srcnode_currency_code</t>
+  </si>
+  <si>
+    <t>Valid</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1235,7 @@
         <v>97</v>
       </c>
       <c r="AD3" t="s" s="0">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="0">
         <v>76</v>
@@ -1344,7 +1369,7 @@
         <v>103</v>
       </c>
       <c r="AD4" t="s" s="0">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="0">
         <v>76</v>
@@ -1478,7 +1503,7 @@
         <v>108</v>
       </c>
       <c r="AD5" t="s" s="0">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="0">
         <v>76</v>
@@ -1612,7 +1637,7 @@
         <v>114</v>
       </c>
       <c r="AD6" t="s" s="0">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="0">
         <v>76</v>
@@ -1880,7 +1905,7 @@
         <v>126</v>
       </c>
       <c r="AD8" t="s" s="0">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="0">
         <v>76</v>
@@ -2014,7 +2039,7 @@
         <v>126</v>
       </c>
       <c r="AD9" t="s" s="0">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="0">
         <v>126</v>
@@ -2148,7 +2173,7 @@
         <v>140</v>
       </c>
       <c r="AD10" t="s" s="0">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="0">
         <v>76</v>
@@ -14376,4 +14401,319 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:CA10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+      <c r="AM1" s="0"/>
+      <c r="AN1" s="0"/>
+      <c r="AO1" s="0"/>
+      <c r="AP1" s="0"/>
+      <c r="AQ1" s="0"/>
+      <c r="AR1" s="0"/>
+      <c r="AS1" s="0"/>
+      <c r="AT1" s="0"/>
+      <c r="AU1" s="0"/>
+      <c r="AV1" s="0"/>
+      <c r="AW1" s="0"/>
+      <c r="AX1" s="0"/>
+      <c r="AY1" s="0"/>
+      <c r="AZ1" s="0"/>
+      <c r="BA1" s="0"/>
+      <c r="BB1" s="0"/>
+      <c r="BC1" s="0"/>
+      <c r="BD1" s="0"/>
+      <c r="BE1" s="0"/>
+      <c r="BF1" s="0"/>
+      <c r="BG1" s="0"/>
+      <c r="BH1" s="0"/>
+      <c r="BI1" s="0"/>
+      <c r="BJ1" s="0"/>
+      <c r="BK1" s="0"/>
+      <c r="BL1" s="0"/>
+      <c r="BM1" s="0"/>
+      <c r="BN1" s="0"/>
+      <c r="BO1" s="0"/>
+      <c r="BP1" s="0"/>
+      <c r="BQ1" s="0"/>
+      <c r="BR1" s="0"/>
+      <c r="BS1" s="0"/>
+      <c r="BT1" s="0"/>
+      <c r="BU1" s="0"/>
+      <c r="BV1" s="0"/>
+      <c r="BW1" s="0"/>
+      <c r="BX1" s="0"/>
+      <c r="BY1" s="0"/>
+      <c r="BZ1" s="0"/>
+      <c r="CA1" s="0"/>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/src/test/testData/mappedDataSheet.xlsx
+++ b/src/test/testData/mappedDataSheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6978" uniqueCount="242">
   <si>
     <t>msg_type</t>
   </si>
@@ -735,6 +735,12 @@
   </si>
   <si>
     <t>Invalid</t>
+  </si>
+  <si>
+    <t>Validate_Conversion_Rates</t>
+  </si>
+  <si>
+    <t>Validate_O_AMT_RECON_ACQ_snknode_amount_requested</t>
   </si>
 </sst>
 </file>
@@ -14435,7 +14441,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BX10"/>
+  <dimension ref="A1:AS1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14463,8 +14469,12 @@
       <c r="G1" t="s" s="0">
         <v>237</v>
       </c>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
+      <c r="H1" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>241</v>
+      </c>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
       <c r="L1" s="0"/>
@@ -14501,244 +14511,6 @@
       <c r="AQ1" s="0"/>
       <c r="AR1" s="0"/>
       <c r="AS1" s="0"/>
-      <c r="AT1" s="0"/>
-      <c r="AU1" s="0"/>
-      <c r="AV1" s="0"/>
-      <c r="AW1" s="0"/>
-      <c r="AX1" s="0"/>
-      <c r="AY1" s="0"/>
-      <c r="AZ1" s="0"/>
-      <c r="BA1" s="0"/>
-      <c r="BB1" s="0"/>
-      <c r="BC1" s="0"/>
-      <c r="BD1" s="0"/>
-      <c r="BE1" s="0"/>
-      <c r="BF1" s="0"/>
-      <c r="BG1" s="0"/>
-      <c r="BH1" s="0"/>
-      <c r="BI1" s="0"/>
-      <c r="BJ1" s="0"/>
-      <c r="BK1" s="0"/>
-      <c r="BL1" s="0"/>
-      <c r="BM1" s="0"/>
-      <c r="BN1" s="0"/>
-      <c r="BO1" s="0"/>
-      <c r="BP1" s="0"/>
-      <c r="BQ1" s="0"/>
-      <c r="BR1" s="0"/>
-      <c r="BS1" s="0"/>
-      <c r="BT1" s="0"/>
-      <c r="BU1" s="0"/>
-      <c r="BV1" s="0"/>
-      <c r="BW1" s="0"/>
-      <c r="BX1" s="0"/>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="E2" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="F2" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="G2" t="s" s="0">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="F3" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>136</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>239</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>238</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
